--- a/Xen Jakaria/Regulator_Drafting_programme/Area_inch.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Area_inch.xlsx
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
         <v>645.16</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="1">ROUND(C3/D3,2)</f>
+        <f t="shared" ref="E3:E9" si="1">ROUND(C3/D3,2)</f>
         <v>0.12</v>
       </c>
     </row>
